--- a/Desktop/MYSARAH/DIGESTION/SPL BLK 1 151024.xlsx
+++ b/Desktop/MYSARAH/DIGESTION/SPL BLK 1 151024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20339"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Desktop\MYSARAH\DIGESTION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\MYSARAH\DIGESTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B815C1C1-4DF8-44AB-A49E-85AAC4F2B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6757EBA-5FA5-4EC3-A941-89EB9C6EE256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,24 +18,11 @@
     <sheet name="WT BERSIH BOTOL" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -606,9 +593,6 @@
     </r>
   </si>
   <si>
-    <t>MAISARAH      15/10/2024</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -649,6 +633,12 @@
       <t xml:space="preserve"> g</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">     15/10/2024</t>
+  </si>
+  <si>
+    <t>MAISARAH</t>
+  </si>
 </sst>
 </file>
 
@@ -672,10 +662,12 @@
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2099,7 +2091,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2146,8 +2138,8 @@
             <a:xfrm>
               <a:off x="4549612" y="897738"/>
               <a:ext cx="1832138" cy="343426"/>
-              <a:chOff x="5019303" y="923350"/>
-              <a:chExt cx="2078171" cy="229184"/>
+              <a:chOff x="5019299" y="923352"/>
+              <a:chExt cx="2078178" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2166,7 +2158,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5939527" y="927230"/>
+                <a:off x="5939528" y="927230"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2213,7 +2205,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019303" y="923350"/>
+                <a:off x="5019299" y="923352"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2260,8 +2252,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792673" y="927231"/>
-                <a:ext cx="304801" cy="215576"/>
+                <a:off x="6792675" y="927231"/>
+                <a:ext cx="304802" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2749,7 +2741,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2794,10 +2786,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4541208" y="897178"/>
-              <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019305" y="923328"/>
-              <a:chExt cx="2078181" cy="229184"/>
+              <a:off x="4541214" y="897178"/>
+              <a:ext cx="1840537" cy="346787"/>
+              <a:chOff x="5019308" y="923328"/>
+              <a:chExt cx="2078174" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2816,7 +2808,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5939527" y="927230"/>
+                <a:off x="5939526" y="927230"/>
                 <a:ext cx="304805" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2863,7 +2855,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019305" y="923328"/>
+                <a:off x="5019308" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2910,7 +2902,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792684" y="927231"/>
+                <a:off x="6792680" y="927231"/>
                 <a:ext cx="304802" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3180,9 +3172,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3220,9 +3212,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3255,9 +3247,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3290,9 +3299,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3469,7 +3495,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3657,10 +3683,12 @@
       <c r="D12" s="106"/>
       <c r="E12" s="107"/>
       <c r="F12" s="35">
-        <v>4.9800000000000004</v>
+        <f>B12/F8</f>
+        <v>4.9900199600798407</v>
       </c>
       <c r="G12" s="38">
-        <v>4.97</v>
+        <f>B12/F9</f>
+        <v>4.9800796812749004</v>
       </c>
       <c r="H12" s="39"/>
     </row>
@@ -3675,10 +3703,12 @@
       <c r="D13" s="91"/>
       <c r="E13" s="92"/>
       <c r="F13" s="35">
-        <v>0.498</v>
+        <f>B13/F8</f>
+        <v>0.49900199600798401</v>
       </c>
       <c r="G13" s="38">
-        <v>0.497</v>
+        <f>B13/F9</f>
+        <v>0.49800796812749004</v>
       </c>
       <c r="H13" s="39"/>
     </row>
@@ -3693,10 +3723,12 @@
       <c r="D14" s="109"/>
       <c r="E14" s="110"/>
       <c r="F14" s="35">
-        <v>9.9600000000000009</v>
+        <f>B14/F8</f>
+        <v>9.9800399201596814</v>
       </c>
       <c r="G14" s="38">
-        <v>9.94</v>
+        <f>B14/F9</f>
+        <v>9.9601593625498008</v>
       </c>
       <c r="H14" s="39"/>
     </row>
@@ -3711,10 +3743,12 @@
       <c r="D15" s="91"/>
       <c r="E15" s="92"/>
       <c r="F15" s="35">
-        <v>0.29899999999999999</v>
+        <f>B15/F8</f>
+        <v>0.29940119760479039</v>
       </c>
       <c r="G15" s="38">
-        <v>0.29799999999999999</v>
+        <f>B15/F9</f>
+        <v>0.29880478087649404</v>
       </c>
       <c r="H15" s="39"/>
     </row>
@@ -3879,7 +3913,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="78"/>
     </row>
@@ -3898,11 +3932,13 @@
       <c r="H28" s="72"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
+      <c r="A29" s="64" t="s">
+        <v>75</v>
+      </c>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
       <c r="D29" s="86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="4"/>
